--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Wilmington</t>
   </si>
   <si>
-    <t xml:space="preserve">D.C.</t>
+    <t xml:space="preserve">District of Columbia</t>
   </si>
   <si>
     <t xml:space="preserve">Washington</t>
@@ -109,6 +109,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,6 +131,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,12 +205,12 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t xml:space="preserve">Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacksonville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakeland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensacola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Augustine</t>
   </si>
 </sst>
 </file>
@@ -202,13 +220,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
   </cols>
@@ -463,6 +481,76 @@
       </c>
       <c r="D18" s="0" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -113,6 +113,21 @@
   </si>
   <si>
     <t xml:space="preserve">St. Augustine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Petersburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlanta</t>
   </si>
 </sst>
 </file>
@@ -220,10 +235,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,6 +568,62 @@
         <v>3</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -238,7 +238,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -128,6 +128,42 @@
   </si>
   <si>
     <t xml:space="preserve">Atlanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dublin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greensboro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savannah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waycross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centralia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield</t>
   </si>
 </sst>
 </file>
@@ -235,10 +271,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,7 +531,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,7 +657,161 @@
         <v>35</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -164,6 +164,45 @@
   </si>
   <si>
     <t xml:space="preserve">Springfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lousiville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mammoth Cave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt. Sterling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paducah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Orleans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreveport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annapolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baltimore</t>
   </si>
 </sst>
 </file>
@@ -271,10 +310,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,6 +855,132 @@
         <v>1</v>
       </c>
     </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -203,6 +203,33 @@
   </si>
   <si>
     <t xml:space="preserve">Baltimore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salisbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagersown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marlboro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detroit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arenel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asbury Park</t>
   </si>
 </sst>
 </file>
@@ -310,15 +337,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
   </cols>
@@ -979,6 +1006,120 @@
       </c>
       <c r="D47" s="0" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">9+2</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">3+10</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -226,10 +226,22 @@
     <t xml:space="preserve">Detroit</t>
   </si>
   <si>
+    <t xml:space="preserve">New Jersey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arenel</t>
   </si>
   <si>
     <t xml:space="preserve">Asbury Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic Highlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayonne</t>
   </si>
 </sst>
 </file>
@@ -337,12 +349,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1089,7 +1101,7 @@
         <v>67</v>
       </c>
       <c r="D53" s="0" t="n">
-        <f aca="false">9+2</f>
+        <f aca="false">11</f>
         <v>11</v>
       </c>
     </row>
@@ -1098,10 +1110,10 @@
         <v>1938</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>1</v>
@@ -1112,14 +1124,55 @@
         <v>1938</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D55" s="0" t="n">
-        <f aca="false">3+10</f>
-        <v>13</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -31,7 +31,22 @@
     <t xml:space="preserve">city</t>
   </si>
   <si>
-    <t xml:space="preserve">count</t>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lodging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beauty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entertainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automotive</t>
   </si>
   <si>
     <t xml:space="preserve">Alabama</t>
@@ -242,6 +257,63 @@
   </si>
   <si>
     <t xml:space="preserve">Bayonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgeston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedar Knoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eatontown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Englewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Englewood-Cliffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hackensack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haskell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawnside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montclair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Brunswick</t>
   </si>
 </sst>
 </file>
@@ -349,17 +421,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.16"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,16 +455,31 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1938</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -395,10 +490,10 @@
         <v>1938</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>4</v>
@@ -409,10 +504,10 @@
         <v>1938</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -423,10 +518,10 @@
         <v>1938</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -437,10 +532,10 @@
         <v>1938</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3</v>
@@ -451,10 +546,10 @@
         <v>1938</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3</v>
@@ -465,10 +560,10 @@
         <v>1938</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2</v>
@@ -479,10 +574,10 @@
         <v>1938</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2</v>
@@ -493,10 +588,10 @@
         <v>1938</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>4</v>
@@ -507,10 +602,10 @@
         <v>1938</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -521,10 +616,10 @@
         <v>1938</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -535,10 +630,10 @@
         <v>1938</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5</v>
@@ -549,10 +644,10 @@
         <v>1938</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -563,10 +658,10 @@
         <v>1938</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>7</v>
@@ -577,10 +672,10 @@
         <v>1938</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>7</v>
@@ -591,10 +686,10 @@
         <v>1938</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>4</v>
@@ -605,10 +700,10 @@
         <v>1938</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>19</v>
@@ -619,10 +714,10 @@
         <v>1938</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -633,10 +728,10 @@
         <v>1938</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
@@ -647,10 +742,10 @@
         <v>1938</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -661,10 +756,10 @@
         <v>1938</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
@@ -675,10 +770,10 @@
         <v>1938</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -689,10 +784,10 @@
         <v>1938</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -703,10 +798,10 @@
         <v>1938</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>4</v>
@@ -717,10 +812,10 @@
         <v>1938</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>5</v>
@@ -731,10 +826,10 @@
         <v>1938</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>13</v>
@@ -745,10 +840,10 @@
         <v>1938</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
@@ -759,10 +854,10 @@
         <v>1938</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
@@ -773,10 +868,10 @@
         <v>1938</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2</v>
@@ -787,10 +882,10 @@
         <v>1938</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>3</v>
@@ -801,10 +896,10 @@
         <v>1938</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>6</v>
@@ -815,10 +910,10 @@
         <v>1938</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
@@ -829,10 +924,10 @@
         <v>1938</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2</v>
@@ -843,10 +938,10 @@
         <v>1938</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>13</v>
@@ -857,10 +952,10 @@
         <v>1938</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>4</v>
@@ -871,10 +966,10 @@
         <v>1938</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
@@ -885,10 +980,10 @@
         <v>1938</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
@@ -899,10 +994,10 @@
         <v>1938</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>3</v>
@@ -913,10 +1008,10 @@
         <v>1938</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
@@ -927,10 +1022,10 @@
         <v>1938</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
@@ -941,10 +1036,10 @@
         <v>1938</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>3</v>
@@ -955,10 +1050,10 @@
         <v>1938</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>4</v>
@@ -969,10 +1064,10 @@
         <v>1938</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
@@ -983,10 +1078,10 @@
         <v>1938</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>1</v>
@@ -997,10 +1092,10 @@
         <v>1938</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>1</v>
@@ -1011,10 +1106,10 @@
         <v>1938</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>9</v>
@@ -1025,10 +1120,10 @@
         <v>1938</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>3</v>
@@ -1039,10 +1134,10 @@
         <v>1938</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
@@ -1053,10 +1148,10 @@
         <v>1938</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2</v>
@@ -1067,10 +1162,10 @@
         <v>1938</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
@@ -1081,10 +1176,10 @@
         <v>1938</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2</v>
@@ -1095,10 +1190,10 @@
         <v>1938</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D53" s="0" t="n">
         <f aca="false">11</f>
@@ -1110,10 +1205,10 @@
         <v>1938</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>1</v>
@@ -1124,10 +1219,10 @@
         <v>1938</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>20</v>
@@ -1138,10 +1233,10 @@
         <v>1938</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>9</v>
@@ -1152,10 +1247,10 @@
         <v>1938</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
@@ -1166,12 +1261,278 @@
         <v>1938</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D58" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t xml:space="preserve">New Brunswick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
   </si>
 </sst>
 </file>
@@ -421,12 +424,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1532,7 +1535,27 @@
       <c r="C77" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="E77" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">automotive</t>
   </si>
   <si>
+    <t xml:space="preserve">tailor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alabama</t>
   </si>
   <si>
@@ -317,6 +320,27 @@
   </si>
   <si>
     <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patternson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point Pleasant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passaic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plainfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Bank</t>
   </si>
 </sst>
 </file>
@@ -424,12 +448,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77:B78"/>
+      <selection pane="bottomLeft" activeCell="J86" activeCellId="0" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,6 +467,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.01"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,16 +498,19 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1938</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -493,10 +521,10 @@
         <v>1938</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>4</v>
@@ -507,10 +535,10 @@
         <v>1938</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -521,10 +549,10 @@
         <v>1938</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -535,10 +563,10 @@
         <v>1938</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3</v>
@@ -549,10 +577,10 @@
         <v>1938</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3</v>
@@ -563,10 +591,10 @@
         <v>1938</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2</v>
@@ -577,10 +605,10 @@
         <v>1938</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2</v>
@@ -591,10 +619,10 @@
         <v>1938</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>4</v>
@@ -605,10 +633,10 @@
         <v>1938</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>4</v>
@@ -619,10 +647,10 @@
         <v>1938</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -633,10 +661,10 @@
         <v>1938</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>5</v>
@@ -647,10 +675,10 @@
         <v>1938</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -661,10 +689,10 @@
         <v>1938</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>7</v>
@@ -675,10 +703,10 @@
         <v>1938</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>7</v>
@@ -689,10 +717,10 @@
         <v>1938</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>4</v>
@@ -703,10 +731,10 @@
         <v>1938</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>19</v>
@@ -717,10 +745,10 @@
         <v>1938</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
@@ -731,10 +759,10 @@
         <v>1938</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
@@ -745,10 +773,10 @@
         <v>1938</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -759,10 +787,10 @@
         <v>1938</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
@@ -773,10 +801,10 @@
         <v>1938</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -787,10 +815,10 @@
         <v>1938</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -801,10 +829,10 @@
         <v>1938</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>4</v>
@@ -815,10 +843,10 @@
         <v>1938</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>5</v>
@@ -829,10 +857,10 @@
         <v>1938</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>13</v>
@@ -843,10 +871,10 @@
         <v>1938</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
@@ -857,10 +885,10 @@
         <v>1938</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
@@ -871,10 +899,10 @@
         <v>1938</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2</v>
@@ -885,10 +913,10 @@
         <v>1938</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>3</v>
@@ -899,10 +927,10 @@
         <v>1938</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>6</v>
@@ -913,10 +941,10 @@
         <v>1938</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>1</v>
@@ -927,10 +955,10 @@
         <v>1938</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2</v>
@@ -941,10 +969,10 @@
         <v>1938</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>13</v>
@@ -955,10 +983,10 @@
         <v>1938</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>4</v>
@@ -969,10 +997,10 @@
         <v>1938</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>1</v>
@@ -983,10 +1011,10 @@
         <v>1938</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>1</v>
@@ -997,10 +1025,10 @@
         <v>1938</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>3</v>
@@ -1011,10 +1039,10 @@
         <v>1938</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>1</v>
@@ -1025,10 +1053,10 @@
         <v>1938</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>1</v>
@@ -1039,10 +1067,10 @@
         <v>1938</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>3</v>
@@ -1053,10 +1081,10 @@
         <v>1938</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>4</v>
@@ -1067,10 +1095,10 @@
         <v>1938</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
@@ -1081,10 +1109,10 @@
         <v>1938</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>1</v>
@@ -1095,10 +1123,10 @@
         <v>1938</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>1</v>
@@ -1109,10 +1137,10 @@
         <v>1938</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>9</v>
@@ -1123,10 +1151,10 @@
         <v>1938</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>3</v>
@@ -1137,10 +1165,10 @@
         <v>1938</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
@@ -1151,10 +1179,10 @@
         <v>1938</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2</v>
@@ -1165,10 +1193,10 @@
         <v>1938</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>1</v>
@@ -1179,10 +1207,10 @@
         <v>1938</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2</v>
@@ -1193,10 +1221,10 @@
         <v>1938</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D53" s="0" t="n">
         <f aca="false">11</f>
@@ -1208,10 +1236,10 @@
         <v>1938</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>1</v>
@@ -1222,10 +1250,10 @@
         <v>1938</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>20</v>
@@ -1236,10 +1264,10 @@
         <v>1938</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>9</v>
@@ -1250,10 +1278,10 @@
         <v>1938</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
@@ -1264,10 +1292,10 @@
         <v>1938</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
@@ -1278,10 +1306,10 @@
         <v>1938</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>1</v>
@@ -1292,10 +1320,10 @@
         <v>1938</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
@@ -1306,10 +1334,10 @@
         <v>1938</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>4</v>
@@ -1320,10 +1348,10 @@
         <v>1938</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>1</v>
@@ -1334,10 +1362,10 @@
         <v>1938</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>1</v>
@@ -1348,10 +1376,10 @@
         <v>1938</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>2</v>
@@ -1362,10 +1390,10 @@
         <v>1938</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>5</v>
@@ -1376,10 +1404,10 @@
         <v>1938</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>1</v>
@@ -1390,10 +1418,10 @@
         <v>1938</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>1</v>
@@ -1404,10 +1432,10 @@
         <v>1938</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>8</v>
@@ -1418,10 +1446,10 @@
         <v>1938</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>1</v>
@@ -1432,10 +1460,10 @@
         <v>1938</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>1</v>
@@ -1446,10 +1474,10 @@
         <v>1938</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>4</v>
@@ -1460,10 +1488,10 @@
         <v>1938</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>1</v>
@@ -1474,10 +1502,10 @@
         <v>1938</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>6</v>
@@ -1488,10 +1516,10 @@
         <v>1938</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>1</v>
@@ -1502,10 +1530,10 @@
         <v>1938</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>8</v>
@@ -1516,10 +1544,10 @@
         <v>1938</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>35</v>
@@ -1530,10 +1558,10 @@
         <v>1938</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
@@ -1544,10 +1572,10 @@
         <v>1938</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
@@ -1556,6 +1584,71 @@
         <v>1</v>
       </c>
       <c r="H78" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -453,7 +453,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J86" activeCellId="0" sqref="J86"/>
+      <selection pane="bottomLeft" activeCell="A78" activeCellId="0" sqref="A78:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1588,6 +1588,12 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="C79" s="0" t="s">
         <v>100</v>
       </c>
@@ -1596,6 +1602,12 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="C80" s="0" t="s">
         <v>101</v>
       </c>
@@ -1604,6 +1616,12 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="C81" s="0" t="s">
         <v>102</v>
       </c>
@@ -1612,6 +1630,12 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="C82" s="0" t="s">
         <v>103</v>
       </c>
@@ -1620,6 +1644,12 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="C83" s="0" t="s">
         <v>104</v>
       </c>
@@ -1628,6 +1658,12 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="C84" s="0" t="s">
         <v>105</v>
       </c>
@@ -1636,6 +1672,12 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="C85" s="0" t="s">
         <v>106</v>
       </c>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -341,6 +341,24 @@
   </si>
   <si>
     <t xml:space="preserve">Red Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reveytown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotch Plains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaux Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffalo</t>
   </si>
 </sst>
 </file>
@@ -448,12 +466,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A78" activeCellId="0" sqref="A78:B85"/>
+      <selection pane="bottomLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1694,6 +1712,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">Buffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York City</t>
   </si>
 </sst>
 </file>
@@ -466,12 +469,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
+      <selection pane="bottomLeft" activeCell="H92" activeCellId="0" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1788,6 +1791,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <f aca="false">34+38+29</f>
+        <v>101</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <f aca="false">22+31</f>
+        <v>53</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <f aca="false">6+5</f>
+        <v>11</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -359,9 +359,6 @@
   </si>
   <si>
     <t xml:space="preserve">Buffalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York City</t>
   </si>
 </sst>
 </file>
@@ -474,7 +471,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H92" activeCellId="0" sqref="H92"/>
+      <selection pane="bottomLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1796,7 +1793,7 @@
         <v>111</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>13</v>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -359,6 +359,30 @@
   </si>
   <si>
     <t xml:space="preserve">Buffalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elmsford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Rochelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larchmont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt. Vernon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ossining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasantville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuckahoe</t>
   </si>
 </sst>
 </file>
@@ -466,12 +490,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
+      <selection pane="bottomLeft" activeCell="A90" activeCellId="0" sqref="A90:A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1789,6 +1813,9 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>1938</v>
+      </c>
       <c r="B91" s="0" t="s">
         <v>111</v>
       </c>
@@ -1812,6 +1839,130 @@
       </c>
       <c r="I91" s="0" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/greenbook_citysummary.xlsx
+++ b/data/greenbook_citysummary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="124">
   <si>
     <t xml:space="preserve">greenbook_edition</t>
   </si>
@@ -383,6 +383,15 @@
   </si>
   <si>
     <t xml:space="preserve">Tuckahoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Plains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Tarrytown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooklyn</t>
   </si>
 </sst>
 </file>
@@ -490,12 +499,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A90" activeCellId="0" sqref="A90:A99"/>
+      <selection pane="bottomLeft" activeCell="A99" activeCellId="0" sqref="A99:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1965,6 +1974,80 @@
         <v>2</v>
       </c>
     </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
